--- a/TEMOA_Europe_Results/3_Results_ct+_nuc+/_4_Hydrogen.xlsx
+++ b/TEMOA_Europe_Results/3_Results_ct+_nuc+/_4_Hydrogen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>tech</t>
   </si>
@@ -53,37 +53,25 @@
     <t>output_comm</t>
   </si>
   <si>
-    <t>HH2_BIO_CM_NEW</t>
-  </si>
-  <si>
     <t>HH2_WE_ALK_DS_NEW</t>
   </si>
   <si>
-    <t>HH2_WE_ALK_CL_NEW</t>
-  </si>
-  <si>
     <t>HH2_WE_PEM_CL_NEW</t>
   </si>
   <si>
-    <t>HH2_BIO_CM_CCS_NEW</t>
-  </si>
-  <si>
     <t>IMP_HH2_DMY_TECH</t>
   </si>
   <si>
-    <t>HH2_DT</t>
-  </si>
-  <si>
     <t>HH2_WE_DT</t>
   </si>
   <si>
     <t>HH2_WE_CU</t>
   </si>
   <si>
+    <t>HH2_CU</t>
+  </si>
+  <si>
     <t>HH2_CT</t>
-  </si>
-  <si>
-    <t>HH2_CU</t>
   </si>
 </sst>
 </file>
@@ -489,7 +477,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -538,22 +526,22 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.08999999999999239</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>-1.522262358073512E-07</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -576,19 +564,19 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09000000000008097</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-9.25052505250194E-07</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -614,7 +602,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -629,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.006039860685811229</v>
       </c>
       <c r="I4">
-        <v>-6.286577504279085E-07</v>
+        <v>4.670921675822592</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>37.52163765158443</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>23.9099519450001</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>547.1225403181301</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -649,10 +637,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -667,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-8.449821753555668E-07</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.8936938317115072</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.554024574434115</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>34.58642575897611</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>124.2769732760927</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -687,11 +675,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
       <c r="D6">
         <v>0</v>
       </c>
@@ -702,22 +690,22 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>9.25052505250194E-07</v>
       </c>
       <c r="H6">
-        <v>-1.910594592281628E-07</v>
+        <v>168.8502614637071</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>435.0825471491955</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>745.7084950942829</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>879.4880420478534</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1247.183943546178</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -725,10 +713,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -740,135 +728,21 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="I7">
-        <v>7.64853298009426</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>6.046246457845092</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>3.456132772980317</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>524.7189494799916</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0.008714443116739376</v>
-      </c>
-      <c r="I8">
-        <v>0.008716483759484844</v>
-      </c>
-      <c r="J8">
-        <v>0.008716354315417039</v>
-      </c>
-      <c r="K8">
-        <v>1.841051406911074</v>
-      </c>
-      <c r="L8">
-        <v>12.57255789629512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>5.356539904788174E-07</v>
-      </c>
-      <c r="H9">
-        <v>43.6283124872591</v>
-      </c>
-      <c r="I9">
-        <v>44.53596471895183</v>
-      </c>
-      <c r="J9">
-        <v>161.6660941335664</v>
-      </c>
-      <c r="K9">
-        <v>192.3775875498985</v>
-      </c>
-      <c r="L9">
-        <v>551.4689465250498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0.09000000000000001</v>
-      </c>
-      <c r="H10">
-        <v>0.09</v>
-      </c>
-      <c r="I10">
-        <v>0.1538654227097795</v>
-      </c>
-      <c r="J10">
-        <v>0.1538658757640531</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
         <v>0</v>
       </c>
     </row>
